--- a/Working Documents/Non-Mapping Documents/conditions/conditionSheet.xlsx
+++ b/Working Documents/Non-Mapping Documents/conditions/conditionSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/tgis_uw_edu/Documents/Documents/gitRepos/MARC2RDA/Working Documents/Non-Mapping Documents/conditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B66131E3-2A4B-49D1-ADA3-3712977B4C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F3775B-5C79-40D3-9290-1E3D22EAB6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5100" windowWidth="29040" windowHeight="15840" xr2:uid="{A63F3337-FD11-4B34-B399-F59D447E0A22}"/>
+    <workbookView xWindow="-28920" yWindow="5100" windowWidth="29040" windowHeight="15840" xr2:uid="{7D32C1ED-353D-44C4-961E-1F28F2CA6F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="97">
   <si>
     <t>Field</t>
   </si>
@@ -52,166 +52,259 @@
     <t>c2-values</t>
   </si>
   <si>
+    <t>scl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>arc</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>aus</t>
+  </si>
+  <si>
+    <t>aut</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>cll</t>
+  </si>
+  <si>
+    <t>cmp</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>cre</t>
+  </si>
+  <si>
+    <t>ctg</t>
+  </si>
+  <si>
+    <t>dsr</t>
+  </si>
+  <si>
+    <t>fmk</t>
+  </si>
+  <si>
+    <t>inv</t>
+  </si>
+  <si>
+    <t>ive</t>
+  </si>
+  <si>
+    <t>ivr</t>
+  </si>
+  <si>
+    <t>lbt</t>
+  </si>
+  <si>
+    <t>lyr</t>
+  </si>
+  <si>
+    <t>pht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pra </t>
+  </si>
+  <si>
+    <t>prg</t>
+  </si>
+  <si>
+    <t>rst</t>
+  </si>
+  <si>
+    <t>$a</t>
+  </si>
+  <si>
+    <t>$b</t>
+  </si>
+  <si>
+    <t>$b &amp; $c</t>
+  </si>
+  <si>
+    <t>$b &amp; $g</t>
+  </si>
+  <si>
+    <t>$b &amp;$c &amp;$g</t>
+  </si>
+  <si>
+    <t>$c</t>
+  </si>
+  <si>
+    <t>$c &amp; $g</t>
+  </si>
+  <si>
+    <t>$d</t>
+  </si>
+  <si>
+    <t>coarse groove|microgroove</t>
+  </si>
+  <si>
+    <t>fine|standard</t>
+  </si>
+  <si>
+    <t>not(fine|standard|coarse groove|microgroove)</t>
+  </si>
+  <si>
+    <t>$e</t>
+  </si>
+  <si>
+    <t>architect</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>calligrapher</t>
+  </si>
+  <si>
+    <t>cartographer</t>
+  </si>
+  <si>
+    <t>choreographer</t>
+  </si>
+  <si>
+    <t>compiler</t>
+  </si>
+  <si>
+    <t>composer</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>designer</t>
+  </si>
+  <si>
+    <t>filmmaker</t>
+  </si>
+  <si>
+    <t>interviewee</t>
+  </si>
+  <si>
+    <t>interviewer</t>
+  </si>
+  <si>
+    <t>inventor</t>
+  </si>
+  <si>
+    <t>librettist</t>
+  </si>
+  <si>
+    <t>lyricist</t>
+  </si>
+  <si>
+    <t>photographer</t>
+  </si>
+  <si>
+    <t>programmer</t>
+  </si>
+  <si>
+    <t>screenwriter</t>
+  </si>
+  <si>
+    <t>sculptor</t>
+  </si>
+  <si>
+    <t>aggregator</t>
+  </si>
+  <si>
+    <t>book artist</t>
+  </si>
+  <si>
+    <t>landscape architect</t>
+  </si>
+  <si>
+    <t>praeses</t>
+  </si>
+  <si>
+    <t>rapporteur</t>
+  </si>
+  <si>
+    <t>remix artist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$e </t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>$g</t>
+  </si>
+  <si>
     <t>006 00</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>$e</t>
-  </si>
-  <si>
-    <t>aggregator</t>
-  </si>
-  <si>
-    <t>arc</t>
-  </si>
-  <si>
-    <t>architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>artist</t>
-  </si>
-  <si>
-    <t>aus</t>
-  </si>
-  <si>
-    <t>aut</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>book artist</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
-    <t>calligrapher</t>
-  </si>
-  <si>
-    <t>cartographer</t>
-  </si>
-  <si>
-    <t>choreographer</t>
-  </si>
-  <si>
-    <t>chr</t>
-  </si>
-  <si>
-    <t>cll</t>
-  </si>
-  <si>
-    <t>cmp</t>
-  </si>
-  <si>
-    <t>$d</t>
-  </si>
-  <si>
-    <t>coarse groove|microgroove</t>
-  </si>
-  <si>
-    <t>com</t>
-  </si>
-  <si>
-    <t>compiler</t>
-  </si>
-  <si>
-    <t>composer</t>
-  </si>
-  <si>
-    <t>cre</t>
-  </si>
-  <si>
-    <t>creator</t>
-  </si>
-  <si>
-    <t>ctg</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
-    <t>designer</t>
-  </si>
-  <si>
-    <t>dsr</t>
-  </si>
-  <si>
     <t>e</t>
   </si>
   <si>
     <t>f</t>
   </si>
   <si>
-    <t>filmmaker</t>
-  </si>
-  <si>
-    <t>fine|standard</t>
-  </si>
-  <si>
-    <t>fmk</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
     <t>007 00</t>
   </si>
   <si>
     <t>h</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>interviewee</t>
-  </si>
-  <si>
-    <t>interviewer</t>
-  </si>
-  <si>
-    <t>inv</t>
-  </si>
-  <si>
-    <t>inventor</t>
-  </si>
-  <si>
-    <t>ive</t>
-  </si>
-  <si>
-    <t>ivr</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>landscape architect</t>
-  </si>
-  <si>
-    <t>lbt</t>
-  </si>
-  <si>
-    <t>librettist</t>
-  </si>
-  <si>
-    <t>lyr</t>
-  </si>
-  <si>
-    <t>lyricist</t>
-  </si>
-  <si>
-    <t>m</t>
+    <t>q</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
   <si>
     <t>046 $a</t>
@@ -220,79 +313,28 @@
     <t>n</t>
   </si>
   <si>
-    <t>not(fine|standard|coarse groove|microgroove)</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>photographer</t>
-  </si>
-  <si>
-    <t>pht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pra </t>
-  </si>
-  <si>
-    <t>praeses</t>
-  </si>
-  <si>
-    <t>prg</t>
-  </si>
-  <si>
-    <t>programmer</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>rapporteur</t>
-  </si>
-  <si>
-    <t>remix artist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$e </t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>rst</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>scl</t>
-  </si>
-  <si>
-    <t>screenwriter</t>
-  </si>
-  <si>
-    <t>sculptor</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>z</t>
+    <t>not($a)</t>
+  </si>
+  <si>
+    <t>only($a)</t>
+  </si>
+  <si>
+    <t>only($b)</t>
+  </si>
+  <si>
+    <t>only($c)</t>
+  </si>
+  <si>
+    <t>only($g)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -322,8 +364,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,21 +680,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A8370F-51A5-4BCE-9960-1E94105C5B99}">
-  <dimension ref="A1:E73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837154DB-E67C-4B15-AACF-62CF6155D652}">
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="4.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.47265625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -672,12 +708,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -685,66 +727,54 @@
       <c r="A3">
         <v>100</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>100</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5" s="1">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>100</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>100</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B7" s="1">
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -752,373 +782,316 @@
       <c r="A8">
         <v>100</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>100</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>100</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
+      <c r="B10" s="1">
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>100</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
+      <c r="B11" s="1">
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>100</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
+      <c r="B13" s="1">
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>100</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
+      <c r="B14" s="1">
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>100</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
+      <c r="B15" s="1">
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>100</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <v>100</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>100</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>340</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>357</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>357</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>357</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>357</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>357</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>357</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
         <v>344</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>100</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>100</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>100</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>100</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>100</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>100</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <v>100</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
-        <v>100</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
-        <v>100</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>344</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>100</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
+        <v>344</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1126,16 +1099,16 @@
         <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1143,27 +1116,33 @@
         <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>100</v>
       </c>
-      <c r="B39">
-        <v>4</v>
+      <c r="B39" t="s">
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1171,60 +1150,84 @@
         <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>100</v>
       </c>
-      <c r="B41">
-        <v>4</v>
+      <c r="B41" t="s">
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>100</v>
       </c>
-      <c r="B42">
-        <v>4</v>
+      <c r="B42" t="s">
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1232,21 +1235,33 @@
         <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>100</v>
       </c>
-      <c r="B46">
-        <v>4</v>
+      <c r="B46" t="s">
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1254,27 +1269,33 @@
         <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>100</v>
       </c>
-      <c r="B48">
-        <v>4</v>
+      <c r="B48" t="s">
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1282,71 +1303,95 @@
         <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
-        <v>344</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1354,38 +1399,32 @@
         <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>100</v>
       </c>
-      <c r="B56">
-        <v>4</v>
+      <c r="B56" t="s">
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>100</v>
       </c>
-      <c r="B57">
-        <v>4</v>
+      <c r="B57" t="s">
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1393,21 +1432,21 @@
         <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>100</v>
       </c>
-      <c r="B59">
-        <v>4</v>
+      <c r="B59" t="s">
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1415,177 +1454,465 @@
         <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
         <v>7</v>
       </c>
-      <c r="C64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65">
-        <v>100</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
         <v>74</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66">
-        <v>100</v>
-      </c>
-      <c r="B66">
-        <v>4</v>
-      </c>
-      <c r="C66" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67">
-        <v>6</v>
-      </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68">
-        <v>100</v>
-      </c>
-      <c r="B68">
-        <v>4</v>
-      </c>
-      <c r="C68" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
         <v>78</v>
       </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69">
-        <v>100</v>
-      </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
         <v>7</v>
       </c>
-      <c r="C69" t="s">
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
         <v>79</v>
       </c>
-      <c r="D69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70">
-        <v>100</v>
-      </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87">
         <v>7</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
         <v>80</v>
       </c>
-      <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71">
-        <v>6</v>
-      </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>85</v>
+      </c>
+      <c r="C92" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
+        <v>46</v>
+      </c>
+      <c r="B94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
+        <v>46</v>
+      </c>
+      <c r="B95" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96">
+        <v>46</v>
+      </c>
+      <c r="B96" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72">
-        <v>7</v>
-      </c>
-      <c r="B72" t="s">
-        <v>42</v>
-      </c>
-      <c r="C72" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97">
+        <v>46</v>
+      </c>
+      <c r="B97" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" t="s">
-        <v>83</v>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98">
+        <v>46</v>
+      </c>
+      <c r="B98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99">
+        <v>340</v>
+      </c>
+      <c r="B99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100">
+        <v>357</v>
+      </c>
+      <c r="B100" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101">
+        <v>357</v>
+      </c>
+      <c r="B101" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102">
+        <v>357</v>
+      </c>
+      <c r="B102" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103">
+        <v>357</v>
+      </c>
+      <c r="B103" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Working Documents/Non-Mapping Documents/conditions/conditionSheet.xlsx
+++ b/Working Documents/Non-Mapping Documents/conditions/conditionSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/tgis_uw_edu/Documents/Documents/gitRepos/MARC2RDA/Working Documents/Non-Mapping Documents/conditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F3775B-5C79-40D3-9290-1E3D22EAB6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{E874AACF-E2BE-4BB0-BA20-5A5C2F88D57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{963FDEDD-EF49-4E2C-BBB2-9FE1880800B6}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5100" windowWidth="29040" windowHeight="15840" xr2:uid="{7D32C1ED-353D-44C4-961E-1F28F2CA6F1A}"/>
+    <workbookView xWindow="-28920" yWindow="5100" windowWidth="29040" windowHeight="15840" xr2:uid="{FAE3BA0F-A317-4367-9EF5-DEF39CE65FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -680,14 +680,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837154DB-E67C-4B15-AACF-62CF6155D652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C214185-C1CB-410A-B3D5-0941C65BD571}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="4.9453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.47265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">

--- a/Working Documents/Non-Mapping Documents/conditions/conditionSheet.xlsx
+++ b/Working Documents/Non-Mapping Documents/conditions/conditionSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/tgis_uw_edu/Documents/Documents/gitRepos/MARC2RDA/Working Documents/Non-Mapping Documents/conditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{E874AACF-E2BE-4BB0-BA20-5A5C2F88D57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{963FDEDD-EF49-4E2C-BBB2-9FE1880800B6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01569502-4F81-481B-94BB-083120DFC77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5100" windowWidth="29040" windowHeight="15840" xr2:uid="{FAE3BA0F-A317-4367-9EF5-DEF39CE65FDC}"/>
   </bookViews>
@@ -683,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C214185-C1CB-410A-B3D5-0941C65BD571}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
